--- a/Team17_Estimated_Effort.xlsx
+++ b/Team17_Estimated_Effort.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mirdLiU4Fk+OqnFbt01X6afZFA78Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miwE/Iacm6bx5zWxiOwLu7rnY9D5A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -65,10 +65,10 @@
     <t>Subtotals</t>
   </si>
   <si>
-    <t>Preliminary &amp;</t>
+    <t>Iteration 1: Planning</t>
   </si>
   <si>
-    <t>Parallel Tasks</t>
+    <t>Project Initiation</t>
   </si>
   <si>
     <t>Architecture</t>
@@ -77,28 +77,34 @@
     <t>Design architecture</t>
   </si>
   <si>
-    <t>Project Manager</t>
+    <t>Project Manager, Architect</t>
+  </si>
+  <si>
+    <t>Ryan Shepherd, Andrew Taylor, Liam Floyd</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Needs analysis - DB architecutre</t>
+  </si>
+  <si>
+    <t>architect</t>
   </si>
   <si>
     <t>Ryan Shepherd</t>
   </si>
   <si>
-    <t>Requirements</t>
+    <t>Needs analysis - network architecture</t>
   </si>
   <si>
-    <t>Gather</t>
+    <t>Andrew Taylor</t>
   </si>
   <si>
-    <t>Architect</t>
+    <t>Needs analysis - cloud and security</t>
   </si>
   <si>
-    <t>Ryan Shepherd, Andrew Taylor, Liam Floyd</t>
-  </si>
-  <si>
-    <t>Analyze</t>
-  </si>
-  <si>
-    <t>Specify</t>
+    <t>Liam Floyd</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -110,73 +116,61 @@
     <t>Requirements Document</t>
   </si>
   <si>
-    <t>Project Manager, Architect</t>
+    <t xml:space="preserve">Iteration 2: </t>
+  </si>
+  <si>
+    <t>Group Tasks</t>
+  </si>
+  <si>
+    <t>Scheduling and research</t>
   </si>
   <si>
     <t>Project Plan</t>
   </si>
   <si>
-    <t>Architecture Document</t>
-  </si>
-  <si>
-    <t>Planning phase</t>
-  </si>
-  <si>
-    <t>Iteration 1:</t>
+    <t xml:space="preserve">Risk assesment </t>
   </si>
   <si>
     <t>Network Component</t>
   </si>
   <si>
-    <t>Needs analysis</t>
+    <t>Research network hardware</t>
   </si>
   <si>
-    <t>Architects</t>
+    <t>Architect</t>
   </si>
   <si>
-    <t>Research intersite network link</t>
+    <t>Research connecting sites</t>
   </si>
   <si>
-    <t>Andrew Taylor</t>
-  </si>
-  <si>
-    <t>Research network builds</t>
-  </si>
-  <si>
-    <t>Research Hardware</t>
+    <t>Research network security protocols</t>
   </si>
   <si>
     <t>DB and Cluster Component</t>
   </si>
   <si>
-    <t>Research Clustering</t>
+    <t>Research Cluster hardware</t>
   </si>
   <si>
-    <t>DB Analysis</t>
+    <t>Research DB Security Protocols</t>
   </si>
   <si>
     <t>Security and hosted cloud services</t>
   </si>
   <si>
-    <t>Research cloud services</t>
+    <t>Research cloud services - Azure, AWS, Google</t>
   </si>
   <si>
-    <t>Liam Floyd</t>
-  </si>
-  <si>
-    <t>Research network security</t>
+    <t>Research network security hardware</t>
   </si>
   <si>
     <t>Research intrusion detection systems</t>
   </si>
   <si>
-    <t>Database</t>
+    <t>Tentative IT3: Database</t>
   </si>
   <si>
     <t>Design</t>
-  </si>
-  <si>
-    <t>Iteration 2:</t>
   </si>
   <si>
     <t>ER diagram</t>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>Research clustering</t>
+  </si>
+  <si>
+    <t>Architecture Document</t>
   </si>
   <si>
     <t>Design Cluster</t>
@@ -224,10 +221,10 @@
     <t>Evaluate needs for next iteration</t>
   </si>
   <si>
-    <t>security, hosted emails</t>
+    <t>Project Manager</t>
   </si>
   <si>
-    <t>Iteration 3:</t>
+    <t>Tentative IT4: Cloud, Security</t>
   </si>
   <si>
     <t>Research Hosting services</t>
@@ -302,21 +299,17 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12.0"/>
       <color rgb="FF800000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="10.0"/>
@@ -362,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border/>
     <border>
       <left style="hair">
@@ -480,6 +473,24 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -487,16 +498,14 @@
       <bottom/>
     </border>
     <border>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
       <right/>
       <bottom style="hair">
         <color rgb="FF000000"/>
@@ -515,6 +524,67 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -527,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -553,10 +623,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -643,63 +713,24 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -708,41 +739,80 @@
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="21" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -750,116 +820,106 @@
     <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="22" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -868,46 +928,19 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -924,56 +957,50 @@
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1441,9 +1468,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <f>SUM(H7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1469,7 +1496,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" ht="15.0" customHeight="1">
+    <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="36" t="s">
@@ -1485,17 +1512,19 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="H7" s="39">
+        <v>1.0</v>
+      </c>
       <c r="I7" s="40"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42">
-        <f t="shared" ref="Q7:Q20" si="1">SUM(M7:P7)</f>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41">
+        <f t="shared" ref="Q7:Q18" si="1">SUM(M7:P7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="4"/>
@@ -1520,8 +1549,8 @@
         <v>16</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34">
         <f>SUM(F9:F11)</f>
@@ -1530,7 +1559,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="34">
         <f>SUM(H9:H11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1565,7 +1594,7 @@
       <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="38" t="s">
@@ -1575,16 +1604,18 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="H9" s="39">
+        <v>2.0</v>
+      </c>
       <c r="I9" s="40"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1610,26 +1641,28 @@
       <c r="C10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="39">
         <v>1.0</v>
       </c>
       <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
+      <c r="H10" s="39">
+        <v>1.0</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42">
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1653,28 +1686,30 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" s="39">
         <v>1.0</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="39">
+        <v>1.0</v>
+      </c>
       <c r="I11" s="40"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1697,20 +1732,20 @@
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34">
-        <f>SUM(F13:F17)</f>
-        <v>13</v>
+        <f>SUM(F13:F15)</f>
+        <v>5</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="34">
-        <f>SUM(H13:H17)</f>
-        <v>0</v>
+        <f>SUM(H13:H15)</f>
+        <v>18</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1739,11 +1774,11 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
+    <row r="13" ht="29.25" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>14</v>
@@ -1755,16 +1790,18 @@
         <v>2.0</v>
       </c>
       <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="H13" s="39">
+        <v>6.0</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42">
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1788,28 +1825,30 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>25</v>
+      <c r="D14" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" s="39">
         <v>3.0</v>
       </c>
       <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="39">
+        <v>12.0</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1829,32 +1868,24 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" ht="29.25" customHeight="1">
+    <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="39">
-        <v>4.0</v>
-      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="40"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42">
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1874,32 +1905,34 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" ht="29.25" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="36" t="s">
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>18</v>
+      <c r="B16" s="29" t="s">
+        <v>28</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>19</v>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48">
+        <f>SUM(F15:F18)</f>
+        <v>13</v>
       </c>
-      <c r="F16" s="39">
-        <v>4.0</v>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49">
+        <f>SUM(H15:H18)</f>
+        <v>0</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="40"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1919,200 +1952,211 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42">
+    <row r="17" ht="30.75" customHeight="1">
+      <c r="A17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="56">
+        <v>10.0</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="46" t="s">
-        <v>28</v>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="59" t="s">
+        <v>31</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54">
+      <c r="D18" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="55" t="s">
-        <v>29</v>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" ht="18.0" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="29" t="s">
+        <v>32</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>30</v>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62">
+        <f>SUM(F19:F21)</f>
+        <v>4</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="34">
-        <f>SUM(F20:F23)</f>
-        <v>7</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="34">
-        <f>SUM(H20:H23)</f>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49">
+        <f>SUM(H18:H21)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" ht="29.25" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53" t="s">
+        <v>33</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="55"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63" t="s">
-        <v>31</v>
+      <c r="D20" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>32</v>
+      <c r="E20" s="63" t="s">
+        <v>21</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="66">
+      <c r="F20" s="56">
         <v>2.0</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" ht="29.25" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="59" t="s">
+        <v>35</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-    </row>
-    <row r="21" ht="29.25" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="65" t="s">
+      <c r="D21" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="66">
-        <v>1.0</v>
+      <c r="E21" s="63" t="s">
+        <v>21</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="67"/>
+      <c r="F21" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60">
+        <f>SUM(M21:P21)</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2130,31 +2174,31 @@
       <c r="AF21" s="4"/>
     </row>
     <row r="22" ht="29.25" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63" t="s">
-        <v>35</v>
+      <c r="A22" s="51"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="65" t="s">
+      <c r="D22" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="66">
+      <c r="E22" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="68">
         <v>2.0</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="67"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -2171,35 +2215,32 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" ht="29.25" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63" t="s">
-        <v>36</v>
+    <row r="23" ht="15.0" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="71" t="s">
+        <v>37</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>18</v>
+      <c r="C23" s="72"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="34">
+        <f>SUM(F24:F25)</f>
+        <v>4</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>34</v>
+      <c r="H23" s="73"/>
+      <c r="I23" s="34">
+        <f>SUM(H24:H25)</f>
+        <v>0</v>
       </c>
-      <c r="F23" s="66">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="67"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70">
-        <f>SUM(M23:P23)</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -2216,32 +2257,35 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="71" t="s">
-        <v>37</v>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="59" t="s">
+        <v>38</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="34">
-        <f>SUM(F25:F27)</f>
-        <v>6</v>
+      <c r="D24" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="34">
-        <f>SUM(H25:H27)</f>
-        <v>0</v>
+      <c r="E24" s="63" t="s">
+        <v>19</v>
       </c>
+      <c r="F24" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60">
+        <f t="shared" ref="Q24:Q27" si="2">SUM(M24:P24)</f>
+        <v>0</v>
+      </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -2258,33 +2302,33 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63" t="s">
-        <v>31</v>
+    <row r="25" ht="27.0" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="59" t="s">
+        <v>39</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>18</v>
+      <c r="D25" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="56">
         <v>2.0</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="67"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70">
-        <f t="shared" ref="Q25:Q30" si="2">SUM(M25:P25)</f>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="4"/>
@@ -2303,32 +2347,32 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="75" t="s">
-        <v>38</v>
+    <row r="26" ht="15.0" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="71" t="s">
+        <v>40</v>
       </c>
-      <c r="D26" s="76" t="s">
-        <v>18</v>
+      <c r="C26" s="72"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="34">
+        <f>SUM(F27:F29)</f>
+        <v>6</v>
       </c>
-      <c r="E26" s="65" t="s">
-        <v>15</v>
+      <c r="H26" s="73"/>
+      <c r="I26" s="34">
+        <f>SUM(H27:H29)</f>
+        <v>0</v>
       </c>
-      <c r="F26" s="66">
-        <v>2.0</v>
-      </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="67"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70">
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2348,32 +2392,32 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" ht="31.5" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="75" t="s">
-        <v>39</v>
+    <row r="27">
+      <c r="A27" s="51"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="53" t="s">
+        <v>41</v>
       </c>
-      <c r="D27" s="76" t="s">
-        <v>18</v>
+      <c r="D27" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E27" s="65" t="s">
-        <v>15</v>
+      <c r="E27" s="63" t="s">
+        <v>23</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="75">
         <v>2.0</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="67"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70">
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2393,35 +2437,32 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="71" t="s">
-        <v>40</v>
+    <row r="28" ht="20.25" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="53" t="s">
+        <v>42</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="34">
-        <f>SUM(F29:F32)</f>
-        <v>7</v>
+      <c r="D28" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="34">
-        <f>SUM(H29:H32)</f>
-        <v>0</v>
+      <c r="E28" s="63" t="s">
+        <v>23</v>
       </c>
+      <c r="F28" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -2438,33 +2479,33 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29">
-      <c r="A29" s="55"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="63" t="s">
-        <v>31</v>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="53" t="s">
+        <v>43</v>
       </c>
-      <c r="D29" s="64" t="s">
-        <v>18</v>
+      <c r="D29" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E29" s="78" t="s">
-        <v>19</v>
+      <c r="E29" s="63" t="s">
+        <v>23</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="56">
         <v>2.0</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="67"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79">
-        <f t="shared" si="2"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76">
+        <f t="shared" ref="Q29:Q34" si="3">SUM(M29:P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="4"/>
@@ -2483,77 +2524,80 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30">
-      <c r="A30" s="55"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="63" t="s">
-        <v>41</v>
+    <row r="30" ht="15.0" customHeight="1">
+      <c r="A30" s="77" t="s">
+        <v>44</v>
       </c>
-      <c r="D30" s="64" t="s">
-        <v>18</v>
+      <c r="B30" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="E30" s="65" t="s">
-        <v>42</v>
+      <c r="C30" s="78"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="79">
+        <f>SUM(F31:F36)</f>
+        <v>12</v>
       </c>
-      <c r="F30" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79">
-        <f t="shared" si="2"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="79">
+        <f>SUM(H31:H36)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="63" t="s">
-        <v>43</v>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
-      <c r="D31" s="64" t="s">
-        <v>18</v>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="36" t="s">
+        <v>46</v>
       </c>
-      <c r="E31" s="65" t="s">
-        <v>42</v>
+      <c r="D31" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="F31" s="66">
+      <c r="E31" s="38"/>
+      <c r="F31" s="39">
         <v>2.0</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="67"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="83"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -2571,32 +2615,30 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="55"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="63" t="s">
-        <v>44</v>
+      <c r="A32" s="85"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="36" t="s">
+        <v>47</v>
       </c>
-      <c r="D32" s="64" t="s">
-        <v>18</v>
+      <c r="D32" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E32" s="65" t="s">
-        <v>42</v>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39">
+        <v>1.0</v>
       </c>
-      <c r="F32" s="66">
-        <v>2.0</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="67"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="83"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79">
-        <f t="shared" ref="Q32:Q41" si="3">SUM(M32:P32)</f>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R32" s="4"/>
@@ -2615,79 +2657,73 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="80" t="s">
-        <v>45</v>
+    <row r="33">
+      <c r="A33" s="86"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="36" t="s">
+        <v>48</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>46</v>
+      <c r="D33" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="82">
-        <f>SUM(F34:F38)</f>
-        <v>12</v>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39">
+        <v>1.0</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="82">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83">
+      <c r="G33" s="83"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="84" t="s">
-        <v>47</v>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="36" t="s">
+        <v>49</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>18</v>
+      <c r="D34" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="39">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="87"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88">
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2708,32 +2744,25 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="36" t="s">
-        <v>49</v>
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="53" t="s">
+        <v>50</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="87"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="90"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2750,31 +2779,31 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86" t="s">
-        <v>50</v>
+    <row r="36" ht="15.0" customHeight="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93" t="s">
+        <v>51</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>18</v>
+      <c r="D36" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39">
-        <v>1.0</v>
+      <c r="E36" s="94"/>
+      <c r="F36" s="95">
+        <v>4.0</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="87"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88">
-        <f t="shared" si="3"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97">
+        <f t="shared" ref="Q36:Q39" si="4">SUM(M36:P36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="4"/>
@@ -2793,31 +2822,33 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86" t="s">
-        <v>51</v>
+    <row r="37" ht="15.0" customHeight="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="D37" s="44" t="s">
-        <v>18</v>
+      <c r="C37" s="78"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="79">
+        <f>SUM(F38:F42)</f>
+        <v>22</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39">
-        <v>4.0</v>
+      <c r="H37" s="73"/>
+      <c r="I37" s="79">
+        <f>SUM(H38:H42)</f>
+        <v>0</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="87"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88">
-        <f t="shared" si="3"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R37" s="4"/>
@@ -2836,31 +2867,31 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90" t="s">
-        <v>52</v>
+    <row r="38">
+      <c r="A38" s="86"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="36" t="s">
+        <v>53</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>18</v>
+      <c r="D38" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="92">
-        <v>4.0</v>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39">
+        <v>1.0</v>
       </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="93"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="83"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95">
-        <f t="shared" si="3"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38" s="4"/>
@@ -2880,32 +2911,30 @@
       <c r="AF38" s="4"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="29" t="s">
-        <v>53</v>
+      <c r="A39" s="86"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="82">
-        <f>SUM(F40:F44)</f>
-        <v>22</v>
+      <c r="D39" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="82">
-        <f>SUM(H40:H44)</f>
-        <v>0</v>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39">
+        <v>6.0</v>
       </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83">
-        <f t="shared" si="3"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R39" s="4"/>
@@ -2924,33 +2953,30 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
+    <row r="40" ht="15.0" customHeight="1">
+      <c r="A40" s="86"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="D40" s="44" t="s">
-        <v>18</v>
+      <c r="D40" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E40" s="96"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="39">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="87"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -2968,30 +2994,30 @@
       <c r="AF40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86" t="s">
-        <v>55</v>
+      <c r="A41" s="86"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="36" t="s">
+        <v>56</v>
       </c>
-      <c r="D41" s="44" t="s">
-        <v>18</v>
+      <c r="D41" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
-      <c r="G41" s="87"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="87"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88">
-        <f t="shared" si="3"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84">
+        <f t="shared" ref="Q41:Q51" si="5">SUM(M41:P41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="4"/>
@@ -3011,29 +3037,32 @@
       <c r="AF41" s="4"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86" t="s">
-        <v>56</v>
+      <c r="A42" s="86"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="93" t="s">
+        <v>57</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>18</v>
+      <c r="D42" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39">
-        <v>6.0</v>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95">
+        <v>4.0</v>
       </c>
-      <c r="G42" s="87"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="87"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -3051,30 +3080,32 @@
       <c r="AF42" s="4"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="86" t="s">
-        <v>57</v>
+      <c r="A43" s="86"/>
+      <c r="B43" s="29" t="s">
+        <v>58</v>
       </c>
-      <c r="D43" s="44" t="s">
-        <v>18</v>
+      <c r="C43" s="78"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="79">
+        <f>SUM(F44:F46)</f>
+        <v>5</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39">
-        <v>5.0</v>
+      <c r="H43" s="73"/>
+      <c r="I43" s="79">
+        <f>SUM(H44:H46)</f>
+        <v>0</v>
       </c>
-      <c r="G43" s="87"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="87"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88">
-        <f t="shared" ref="Q43:Q53" si="4">SUM(M43:P43)</f>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R43" s="4"/>
@@ -3093,31 +3124,31 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90" t="s">
-        <v>58</v>
+    <row r="44">
+      <c r="A44" s="86"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="36" t="s">
+        <v>59</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>18</v>
+      <c r="D44" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="92">
-        <v>4.0</v>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39">
+        <v>2.0</v>
       </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="93"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95">
-        <f t="shared" si="4"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R44" s="4"/>
@@ -3136,33 +3167,31 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="29" t="s">
-        <v>59</v>
+    <row r="45">
+      <c r="A45" s="86"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="36" t="s">
+        <v>60</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="82">
-        <f>SUM(F46:F48)</f>
-        <v>5</v>
+      <c r="D45" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="82">
-        <f>SUM(H46:H48)</f>
-        <v>0</v>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39">
+        <v>2.0</v>
       </c>
+      <c r="G45" s="83"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="83"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83">
-        <f t="shared" si="4"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R45" s="4"/>
@@ -3181,31 +3210,31 @@
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="36" t="s">
-        <v>60</v>
+    <row r="46" ht="15.0" customHeight="1">
+      <c r="A46" s="86"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93" t="s">
+        <v>61</v>
       </c>
-      <c r="D46" s="44" t="s">
-        <v>18</v>
+      <c r="D46" s="98" t="s">
+        <v>62</v>
       </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="39">
-        <v>2.0</v>
+      <c r="E46" s="94"/>
+      <c r="F46" s="95">
+        <v>1.0</v>
       </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="87"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88">
-        <f t="shared" si="4"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R46" s="4"/>
@@ -3224,74 +3253,78 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47">
-      <c r="A47" s="84"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="36" t="s">
-        <v>61</v>
+    <row r="47" ht="15.0" customHeight="1">
+      <c r="A47" s="99" t="s">
+        <v>63</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>18</v>
+      <c r="B47" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="39">
-        <v>2.0</v>
+      <c r="C47" s="78"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="79">
+        <f>SUM(F48:F51)</f>
+        <v>9</v>
       </c>
-      <c r="G47" s="87"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88">
-        <f t="shared" si="4"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="79">
+        <f>SUM(H48:H51)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="97" t="s">
-        <v>62</v>
+      <c r="A48" s="85"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="101" t="s">
+        <v>64</v>
       </c>
-      <c r="D48" s="98" t="s">
-        <v>14</v>
+      <c r="D48" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="92">
-        <v>1.0</v>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103">
+        <v>3.0</v>
       </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="93"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="105"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95">
-        <f t="shared" si="4"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R48" s="4"/>
@@ -3311,79 +3344,73 @@
       <c r="AF48" s="4"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="99" t="s">
-        <v>63</v>
+      <c r="A49" s="51"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="107" t="s">
+        <v>47</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>46</v>
+      <c r="D49" s="54" t="s">
+        <v>62</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="82">
-        <f>SUM(F50:F53)</f>
-        <v>9</v>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109">
+        <v>1.0</v>
       </c>
-      <c r="H49" s="60"/>
-      <c r="I49" s="82">
-        <f>SUM(H50:H53)</f>
+      <c r="G49" s="57"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="64" t="s">
-        <v>18</v>
+      <c r="D50" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E50" s="102"/>
-      <c r="F50" s="103">
-        <v>3.0</v>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109">
+        <v>2.0</v>
       </c>
-      <c r="G50" s="104"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="105"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="106">
-        <f t="shared" si="4"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R50" s="4"/>
@@ -3403,30 +3430,30 @@
       <c r="AF50" s="4"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="107" t="s">
-        <v>49</v>
+      <c r="A51" s="51"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111" t="s">
+        <v>66</v>
       </c>
-      <c r="D51" s="108" t="s">
-        <v>14</v>
+      <c r="D51" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110">
-        <v>1.0</v>
+      <c r="E51" s="112"/>
+      <c r="F51" s="113">
+        <v>3.0</v>
       </c>
-      <c r="G51" s="67"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="67"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79">
-        <f t="shared" si="4"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="115">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R51" s="4"/>
@@ -3446,32 +3473,29 @@
       <c r="AF51" s="4"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="55"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="75" t="s">
-        <v>66</v>
+      <c r="A52" s="51"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="111" t="s">
+        <v>67</v>
       </c>
-      <c r="D52" s="64" t="s">
-        <v>18</v>
+      <c r="D52" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110">
-        <v>2.0</v>
+      <c r="E52" s="112"/>
+      <c r="F52" s="113">
+        <v>1.0</v>
       </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="67"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="114"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -3489,30 +3513,32 @@
       <c r="AF52" s="4"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="55"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="113" t="s">
-        <v>67</v>
+      <c r="A53" s="51"/>
+      <c r="B53" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="D53" s="64" t="s">
-        <v>18</v>
+      <c r="C53" s="78"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="79">
+        <f>SUM(F54:F58)</f>
+        <v>17</v>
       </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115">
-        <v>3.0</v>
+      <c r="H53" s="73"/>
+      <c r="I53" s="79">
+        <f>SUM(H54:H58)</f>
+        <v>0</v>
       </c>
-      <c r="G53" s="116"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="116"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="118">
-        <f t="shared" si="4"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80">
+        <f t="shared" ref="Q53:Q62" si="6">SUM(M53:P53)</f>
         <v>0</v>
       </c>
       <c r="R53" s="4"/>
@@ -3531,30 +3557,33 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="55"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120" t="s">
+    <row r="54">
+      <c r="A54" s="51"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="64" t="s">
-        <v>18</v>
+      <c r="D54" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="122">
+      <c r="E54" s="108"/>
+      <c r="F54" s="109">
         <v>1.0</v>
       </c>
-      <c r="G54" s="123"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="123"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
@@ -3571,33 +3600,31 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="29" t="s">
-        <v>53</v>
+    <row r="55">
+      <c r="A55" s="51"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="107" t="s">
+        <v>69</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="82">
-        <f>SUM(F56:F60)</f>
-        <v>17</v>
+      <c r="D55" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="82">
-        <f>SUM(H56:H60)</f>
-        <v>0</v>
+      <c r="E55" s="108"/>
+      <c r="F55" s="109">
+        <v>5.0</v>
       </c>
+      <c r="G55" s="57"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83">
-        <f t="shared" ref="Q55:Q64" si="5">SUM(M55:P55)</f>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R55" s="4"/>
@@ -3616,31 +3643,31 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="55"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="75" t="s">
-        <v>69</v>
+    <row r="56" ht="15.0" customHeight="1">
+      <c r="A56" s="51"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="107" t="s">
+        <v>70</v>
       </c>
-      <c r="D56" s="64" t="s">
-        <v>18</v>
+      <c r="D56" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E56" s="126"/>
-      <c r="F56" s="110">
-        <v>1.0</v>
+      <c r="E56" s="108"/>
+      <c r="F56" s="109">
+        <v>5.0</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="57"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79">
-        <f t="shared" si="5"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R56" s="4"/>
@@ -3659,31 +3686,31 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57">
-      <c r="A57" s="55"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="75" t="s">
-        <v>70</v>
+    <row r="57" ht="15.0" customHeight="1">
+      <c r="A57" s="51"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="107" t="s">
+        <v>71</v>
       </c>
-      <c r="D57" s="64" t="s">
-        <v>18</v>
+      <c r="D57" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E57" s="126"/>
-      <c r="F57" s="110">
-        <v>5.0</v>
+      <c r="E57" s="108"/>
+      <c r="F57" s="109">
+        <v>3.0</v>
       </c>
-      <c r="G57" s="67"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="67"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="57"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79">
-        <f t="shared" si="5"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R57" s="4"/>
@@ -3703,30 +3730,30 @@
       <c r="AF57" s="4"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="75" t="s">
-        <v>71</v>
+      <c r="A58" s="51"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111" t="s">
+        <v>72</v>
       </c>
-      <c r="D58" s="64" t="s">
-        <v>18</v>
+      <c r="D58" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110">
-        <v>5.0</v>
+      <c r="E58" s="112"/>
+      <c r="F58" s="113">
+        <v>3.0</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79">
-        <f t="shared" si="5"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R58" s="4"/>
@@ -3746,30 +3773,32 @@
       <c r="AF58" s="4"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="55"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="75" t="s">
-        <v>72</v>
+      <c r="A59" s="51"/>
+      <c r="B59" s="116" t="s">
+        <v>58</v>
       </c>
-      <c r="D59" s="64" t="s">
-        <v>18</v>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="121">
+        <f>SUM(F60:F61)</f>
+        <v>6</v>
       </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="110">
-        <v>3.0</v>
+      <c r="H59" s="120"/>
+      <c r="I59" s="121">
+        <f>SUM(H60:H61)</f>
+        <v>0</v>
       </c>
-      <c r="G59" s="67"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="67"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79">
-        <f t="shared" si="5"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R59" s="4"/>
@@ -3788,31 +3817,31 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="113" t="s">
+    <row r="60">
+      <c r="A60" s="123"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="64" t="s">
-        <v>18</v>
+      <c r="D60" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="E60" s="114"/>
-      <c r="F60" s="115">
-        <v>3.0</v>
+      <c r="E60" s="108"/>
+      <c r="F60" s="124">
+        <v>6.0</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="116"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="105"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118">
-        <f t="shared" si="5"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R60" s="4"/>
@@ -3832,32 +3861,24 @@
       <c r="AF60" s="4"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="128"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="132">
-        <f>SUM(F62:F63)</f>
-        <v>6</v>
-      </c>
-      <c r="H61" s="131"/>
-      <c r="I61" s="132">
-        <f>SUM(H62:H63)</f>
-        <v>0</v>
-      </c>
+      <c r="A61" s="125"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="114"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="133"/>
-      <c r="N61" s="133"/>
-      <c r="O61" s="133"/>
-      <c r="P61" s="133"/>
-      <c r="Q61" s="133">
-        <f t="shared" si="5"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R61" s="4"/>
@@ -3876,154 +3897,142 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62">
-      <c r="A62" s="134"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="101" t="s">
-        <v>74</v>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="128" t="s">
+        <v>1</v>
       </c>
-      <c r="D62" s="64" t="s">
-        <v>18</v>
+      <c r="B62" s="128"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="131">
+        <f t="shared" ref="F62:G62" si="7">SUM(F5:F61)</f>
+        <v>110</v>
       </c>
-      <c r="E62" s="126"/>
-      <c r="F62" s="135">
-        <v>6.0</v>
+      <c r="G62" s="132">
+        <f t="shared" si="7"/>
+        <v>107</v>
       </c>
-      <c r="G62" s="104"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="106"/>
-      <c r="O62" s="106"/>
-      <c r="P62" s="106"/>
-      <c r="Q62" s="106">
-        <f t="shared" si="5"/>
+      <c r="H62" s="133">
+        <f>SUM(M62:P62)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-    </row>
-    <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="137"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="118">
-        <f t="shared" si="5"/>
+      <c r="I62" s="132">
+        <f>SUM(I5:I61)</f>
+        <v>23</v>
+      </c>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="133">
+        <f t="shared" ref="M62:P62" si="8">SUM(M5:M61)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="141"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="144">
-        <f t="shared" ref="F64:G64" si="6">SUM(F5:F63)</f>
-        <v>109</v>
-      </c>
-      <c r="G64" s="145">
-        <f t="shared" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="H64" s="146">
-        <f>SUM(M64:P64)</f>
+      <c r="N62" s="133">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I64" s="145">
-        <f>SUM(I5:I63)</f>
+      <c r="O62" s="133">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="146">
-        <f t="shared" ref="M64:P64" si="7">SUM(M5:M63)</f>
+      <c r="P62" s="133">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N64" s="146">
-        <f t="shared" si="7"/>
+      <c r="Q62" s="133">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O64" s="146">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="146">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="147"/>
-      <c r="Y64" s="147"/>
-      <c r="Z64" s="147"/>
-      <c r="AA64" s="147"/>
-      <c r="AB64" s="147"/>
-      <c r="AC64" s="147"/>
-      <c r="AD64" s="147"/>
-      <c r="AE64" s="147"/>
-      <c r="AF64" s="147"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="134"/>
+      <c r="W62" s="134"/>
+      <c r="X62" s="134"/>
+      <c r="Y62" s="134"/>
+      <c r="Z62" s="134"/>
+      <c r="AA62" s="134"/>
+      <c r="AB62" s="134"/>
+      <c r="AC62" s="134"/>
+      <c r="AD62" s="134"/>
+      <c r="AE62" s="134"/>
+      <c r="AF62" s="134"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="148"/>
+      <c r="D65" s="135"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -4053,73 +4062,73 @@
       <c r="AE65" s="8"/>
       <c r="AF65" s="8"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="8"/>
-      <c r="AF66" s="8"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
+    <row r="66">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -35741,76 +35750,12 @@
       <c r="AE997" s="4"/>
       <c r="AF997" s="4"/>
     </row>
-    <row r="998">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="6"/>
-      <c r="N998" s="6"/>
-      <c r="O998" s="6"/>
-      <c r="P998" s="6"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-      <c r="AA998" s="4"/>
-      <c r="AB998" s="4"/>
-      <c r="AC998" s="4"/>
-      <c r="AD998" s="4"/>
-      <c r="AE998" s="4"/>
-      <c r="AF998" s="4"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="6"/>
-      <c r="N999" s="6"/>
-      <c r="O999" s="6"/>
-      <c r="P999" s="6"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-      <c r="AA999" s="4"/>
-      <c r="AB999" s="4"/>
-      <c r="AC999" s="4"/>
-      <c r="AD999" s="4"/>
-      <c r="AE999" s="4"/>
-      <c r="AF999" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:I64 M5:Q64">
+  <mergeCells count="2">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A47:A48"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I5 I7:I15 I20:I62 M5:Q62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Team17_Estimated_Effort.xlsx
+++ b/Team17_Estimated_Effort.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miwE/Iacm6bx5zWxiOwLu7rnY9D5A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi12Mty561/ryqJY5atz5moh0slZQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -131,6 +131,12 @@
     <t xml:space="preserve">Risk assesment </t>
   </si>
   <si>
+    <t>Ryan Shepherd, Andrew Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation </t>
+  </si>
+  <si>
     <t>Network Component</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
     <t>Research network security protocols</t>
   </si>
   <si>
+    <t>Network Diagraming</t>
+  </si>
+  <si>
     <t>DB and Cluster Component</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
   </si>
   <si>
     <t>Research DB Security Protocols</t>
+  </si>
+  <si>
+    <t>Server cluster design</t>
   </si>
   <si>
     <t>Security and hosted cloud services</t>
@@ -167,94 +179,94 @@
     <t>Research intrusion detection systems</t>
   </si>
   <si>
-    <t>Tentative IT3: Database</t>
+    <t>Research Security protocols</t>
+  </si>
+  <si>
+    <t>IT3: Architecture</t>
+  </si>
+  <si>
+    <t>Group Activities</t>
+  </si>
+  <si>
+    <t>Architecture Document</t>
+  </si>
+  <si>
+    <t>Project Manager, Architects</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Hardware design</t>
+  </si>
+  <si>
+    <t>update diagrams</t>
+  </si>
+  <si>
+    <t>write detailed report</t>
+  </si>
+  <si>
+    <t>detail Windstream choice</t>
+  </si>
+  <si>
+    <t>configuration info</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ER Diagram</t>
+  </si>
+  <si>
+    <t>Server systems</t>
+  </si>
+  <si>
+    <t>Hardware recommendations</t>
+  </si>
+  <si>
+    <t>Configuration information</t>
+  </si>
+  <si>
+    <t>Write report</t>
+  </si>
+  <si>
+    <t>Update diagrams</t>
+  </si>
+  <si>
+    <t>Cloud services</t>
+  </si>
+  <si>
+    <t>Service provider services, price comparison</t>
+  </si>
+  <si>
+    <t>Compare cloud infrastructure instead of on-prem server cluster</t>
+  </si>
+  <si>
+    <t>Security Services</t>
+  </si>
+  <si>
+    <t>Hardware recomendation</t>
+  </si>
+  <si>
+    <t>Layers of security protocols</t>
+  </si>
+  <si>
+    <t>Configuration and settings information</t>
+  </si>
+  <si>
+    <t>Writing the report</t>
+  </si>
+  <si>
+    <t>Tentative IT4: Cloud, Security</t>
   </si>
   <si>
     <t>Design</t>
   </si>
   <si>
-    <t>ER diagram</t>
-  </si>
-  <si>
-    <t>Risk analysis</t>
-  </si>
-  <si>
-    <t>Database analysis</t>
-  </si>
-  <si>
-    <t>Research clustering</t>
-  </si>
-  <si>
-    <t>Architecture Document</t>
-  </si>
-  <si>
-    <t>Design Cluster</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
-    <t>Review requirements</t>
-  </si>
-  <si>
-    <t>write mySql code</t>
-  </si>
-  <si>
-    <t>Build front-end of DB</t>
-  </si>
-  <si>
-    <t>spec out cluster</t>
-  </si>
-  <si>
-    <t>Build cluster</t>
-  </si>
-  <si>
     <t>Analysis</t>
-  </si>
-  <si>
-    <t>System Testing</t>
-  </si>
-  <si>
-    <t>Bug fix as required</t>
-  </si>
-  <si>
-    <t>Evaluate needs for next iteration</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Tentative IT4: Cloud, Security</t>
-  </si>
-  <si>
-    <t>Research Hosting services</t>
-  </si>
-  <si>
-    <t>Research network security/needs analysis</t>
-  </si>
-  <si>
-    <t>Research intrusion detection</t>
-  </si>
-  <si>
-    <t>needs analysis on hosting services</t>
-  </si>
-  <si>
-    <t>Review security requirements</t>
-  </si>
-  <si>
-    <t>Build web filtering and firewall security</t>
-  </si>
-  <si>
-    <t>Implement intrusion detection</t>
-  </si>
-  <si>
-    <t>Spec out/design cloud hosting</t>
-  </si>
-  <si>
-    <t>Design cloud email server</t>
-  </si>
-  <si>
-    <t>Build report</t>
   </si>
 </sst>
 </file>
@@ -264,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +320,22 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
     </font>
     <font/>
     <font>
@@ -355,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border/>
     <border>
       <left style="hair">
@@ -507,6 +535,25 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
@@ -519,22 +566,6 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <left style="hair">
@@ -585,6 +616,51 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right/>
+      <bottom/>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -597,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,44 +848,56 @@
     <xf borderId="12" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="16" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="16" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -823,14 +911,23 @@
     <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="17" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="17" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -841,9 +938,20 @@
     <xf borderId="9" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,49 +959,138 @@
     <xf borderId="10" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="31" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="4" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="4" fontId="10" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="25" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="3" fontId="10" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -969,7 +1166,7 @@
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -978,22 +1175,22 @@
     <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1923,7 +2120,7 @@
       <c r="H16" s="49"/>
       <c r="I16" s="49">
         <f>SUM(H15:H18)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1970,16 +2167,18 @@
         <v>10.0</v>
       </c>
       <c r="G17" s="57"/>
-      <c r="H17" s="55"/>
+      <c r="H17" s="58">
+        <v>25.0</v>
+      </c>
       <c r="I17" s="55"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58">
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2002,29 +2201,31 @@
     <row r="18">
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="55" t="s">
-        <v>15</v>
+      <c r="E18" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="F18" s="56">
         <v>3.0</v>
       </c>
       <c r="G18" s="57"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="58">
+        <v>7.0</v>
+      </c>
       <c r="I18" s="55"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60">
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2044,74 +2245,76 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19">
       <c r="A19" s="51"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62">
-        <f>SUM(F19:F21)</f>
+      <c r="F19" s="66">
+        <v>6.0</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68">
+        <v>7.0</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" ht="18.0" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71">
+        <f>SUM(F20:F22)</f>
         <v>4</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49">
-        <f>SUM(H18:H21)</f>
-        <v>0</v>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49">
+        <f>SUM(H21:H24)</f>
+        <v>8</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" ht="29.25" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -2131,32 +2334,31 @@
     <row r="21" ht="29.25" customHeight="1">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="56">
         <v>2.0</v>
       </c>
       <c r="G21" s="57"/>
-      <c r="H21" s="56"/>
+      <c r="H21" s="73">
+        <v>1.0</v>
+      </c>
       <c r="I21" s="57"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60">
-        <f>SUM(M21:P21)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2175,30 +2377,35 @@
     </row>
     <row r="22" ht="29.25" customHeight="1">
       <c r="A22" s="51"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="56">
         <v>2.0</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="69"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="73">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="57"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62">
+        <f>SUM(M22:P22)</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -2215,32 +2422,34 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
+    <row r="23" ht="29.25" customHeight="1">
       <c r="A23" s="51"/>
-      <c r="B23" s="71" t="s">
-        <v>37</v>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64" t="s">
+        <v>38</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="34">
-        <f>SUM(F24:F25)</f>
-        <v>4</v>
+      <c r="D23" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="34">
-        <f>SUM(H24:H25)</f>
-        <v>0</v>
+      <c r="E23" s="74" t="s">
+        <v>23</v>
       </c>
+      <c r="F23" s="66">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="67"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -2257,35 +2466,34 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" ht="29.25" customHeight="1">
       <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="59" t="s">
-        <v>38</v>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64" t="s">
+        <v>39</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>34</v>
+      <c r="D24" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="E24" s="63" t="s">
-        <v>19</v>
+      <c r="E24" s="74" t="s">
+        <v>21</v>
       </c>
-      <c r="F24" s="56">
-        <v>2.0</v>
+      <c r="F24" s="66">
+        <v>3.0</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="66">
+        <v>6.0</v>
+      </c>
+      <c r="I24" s="67"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60">
-        <f t="shared" ref="Q24:Q27" si="2">SUM(M24:P24)</f>
-        <v>0</v>
-      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -2302,35 +2510,32 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" ht="27.0" customHeight="1">
+    <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="59" t="s">
-        <v>39</v>
+      <c r="B25" s="75" t="s">
+        <v>40</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>34</v>
+      <c r="C25" s="76"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="34">
+        <f>SUM(F26:F27)</f>
+        <v>4</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>19</v>
+      <c r="H25" s="77"/>
+      <c r="I25" s="34">
+        <f>SUM(H26:H28)</f>
+        <v>3</v>
       </c>
-      <c r="F25" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -2347,33 +2552,35 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
+    <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="71" t="s">
-        <v>40</v>
+      <c r="B26" s="52"/>
+      <c r="C26" s="60" t="s">
+        <v>41</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="34">
-        <f>SUM(F27:F29)</f>
-        <v>6</v>
+      <c r="D26" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="34">
-        <f>SUM(H27:H29)</f>
-        <v>0</v>
+      <c r="E26" s="72" t="s">
+        <v>19</v>
       </c>
+      <c r="F26" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="73">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="57"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35">
-        <f t="shared" si="2"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62">
+        <f t="shared" ref="Q26:Q27" si="2">SUM(M26:P26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="4"/>
@@ -2392,32 +2599,34 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" ht="27.0" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="53" t="s">
-        <v>41</v>
+      <c r="B27" s="78"/>
+      <c r="C27" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
-      <c r="E27" s="63" t="s">
-        <v>23</v>
+      <c r="E27" s="72" t="s">
+        <v>19</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="56">
         <v>2.0</v>
       </c>
       <c r="G27" s="57"/>
-      <c r="H27" s="56"/>
+      <c r="H27" s="73">
+        <v>0.0</v>
+      </c>
       <c r="I27" s="57"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76">
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2437,32 +2646,34 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" ht="20.25" customHeight="1">
+    <row r="28" ht="27.0" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="53" t="s">
-        <v>42</v>
+      <c r="B28" s="79"/>
+      <c r="C28" s="64" t="s">
+        <v>43</v>
       </c>
-      <c r="D28" s="54" t="s">
-        <v>34</v>
+      <c r="D28" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="E28" s="63" t="s">
-        <v>23</v>
+      <c r="E28" s="74" t="s">
+        <v>19</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="66">
         <v>2.0</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="67"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -2479,33 +2690,33 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" ht="24.75" customHeight="1">
+    <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="53" t="s">
-        <v>43</v>
+      <c r="B29" s="75" t="s">
+        <v>44</v>
       </c>
-      <c r="D29" s="54" t="s">
-        <v>34</v>
+      <c r="C29" s="76"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="34">
+        <f>SUM(F30:F32)</f>
+        <v>6</v>
       </c>
-      <c r="E29" s="63" t="s">
-        <v>23</v>
+      <c r="H29" s="77"/>
+      <c r="I29" s="34">
+        <f>SUM(H30:H33)</f>
+        <v>8</v>
       </c>
-      <c r="F29" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76">
-        <f t="shared" ref="Q29:Q34" si="3">SUM(M29:P29)</f>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35">
+        <f t="shared" ref="Q29:Q30" si="3">SUM(M29:P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="4"/>
@@ -2524,80 +2735,81 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="29" t="s">
+    <row r="30">
+      <c r="A30" s="51"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="79">
-        <f>SUM(F31:F36)</f>
-        <v>12</v>
+      <c r="D30" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="79">
-        <f>SUM(H31:H36)</f>
-        <v>0</v>
+      <c r="E30" s="72" t="s">
+        <v>23</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80">
+      <c r="F30" s="73">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="57"/>
+      <c r="H30" s="73">
+        <v>2.0</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="81"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="36" t="s">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" ht="20.25" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>34</v>
+      <c r="D31" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39">
+      <c r="E31" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="56">
         <v>2.0</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="83"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="73">
+        <v>4.0</v>
+      </c>
+      <c r="I31" s="57"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -2614,31 +2826,35 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="36" t="s">
+    <row r="32" ht="24.75" customHeight="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>34</v>
+      <c r="D32" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39">
-        <v>1.0</v>
+      <c r="E32" s="72" t="s">
+        <v>23</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="83"/>
+      <c r="F32" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="73">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="57"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84">
-        <f t="shared" si="3"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81">
+        <f>SUM(M32:P32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="4"/>
@@ -2657,33 +2873,34 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="86"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="36" t="s">
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>34</v>
+      <c r="D33" s="65" t="s">
+        <v>36</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39">
-        <v>1.0</v>
+      <c r="E33" s="74" t="s">
+        <v>23</v>
       </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="83"/>
+      <c r="F33" s="66">
+        <v>2.0</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="66">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="67"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -2700,69 +2917,82 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" ht="24.75" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="36" t="s">
+    <row r="34" ht="15.0" customHeight="1">
+      <c r="A34" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>34</v>
+      <c r="B34" s="84" t="s">
+        <v>50</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39">
-        <v>4.0</v>
+      <c r="C34" s="85"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="86">
+        <f>SUM(F35:F40)</f>
+        <v>20</v>
       </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84">
-        <f t="shared" si="3"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="86">
+        <f>SUM(H35:H40)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="53" t="s">
-        <v>50</v>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87">
+        <f t="shared" ref="Q34:Q38" si="4">SUM(M34:P34)</f>
+        <v>0</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="90"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="92">
+        <v>15.0</v>
+      </c>
+      <c r="G35" s="93"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="93"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2780,30 +3010,32 @@
       <c r="AF35" s="4"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="86"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93" t="s">
-        <v>51</v>
+      <c r="A36" s="95"/>
+      <c r="B36" s="84" t="s">
+        <v>53</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>34</v>
+      <c r="C36" s="85"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="86">
+        <f>SUM(F37:F42)</f>
+        <v>6</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95">
-        <v>4.0</v>
+      <c r="H36" s="77"/>
+      <c r="I36" s="86">
+        <f>SUM(H37:H42)</f>
+        <v>0</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97">
-        <f t="shared" ref="Q36:Q39" si="4">SUM(M36:P36)</f>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R36" s="4"/>
@@ -2822,32 +3054,32 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="86"/>
-      <c r="B37" s="29" t="s">
-        <v>52</v>
+    <row r="37">
+      <c r="A37" s="96"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90" t="s">
+        <v>54</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="79">
-        <f>SUM(F38:F42)</f>
-        <v>22</v>
+      <c r="D37" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="79">
-        <f>SUM(H38:H42)</f>
-        <v>0</v>
+      <c r="E37" s="97" t="s">
+        <v>21</v>
       </c>
+      <c r="F37" s="92">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="93"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80">
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2867,30 +3099,32 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38">
-      <c r="A38" s="86"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="36" t="s">
-        <v>53</v>
+    <row r="38" ht="18.0" customHeight="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90" t="s">
+        <v>55</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>34</v>
+      <c r="D38" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39">
+      <c r="E38" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="92">
         <v>1.0</v>
       </c>
-      <c r="G38" s="83"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="39"/>
-      <c r="I38" s="83"/>
+      <c r="I38" s="93"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84">
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2911,32 +3145,31 @@
       <c r="AF38" s="4"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="86"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="36" t="s">
-        <v>54</v>
+      <c r="A39" s="96"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99" t="s">
+        <v>56</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>34</v>
+      <c r="D39" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39">
-        <v>6.0</v>
+      <c r="E39" s="100" t="s">
+        <v>21</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="83"/>
+      <c r="F39" s="101">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="102"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -2954,29 +3187,34 @@
       <c r="AF39" s="4"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="86"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="36" t="s">
-        <v>55</v>
+      <c r="A40" s="96"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="105" t="s">
+        <v>57</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>34</v>
+      <c r="D40" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39">
-        <v>6.0</v>
+      <c r="E40" s="100" t="s">
+        <v>21</v>
       </c>
-      <c r="G40" s="83"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="83"/>
+      <c r="F40" s="101">
+        <v>1.0</v>
+      </c>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="102"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106">
+        <f>SUM(M40:P40)</f>
+        <v>0</v>
+      </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -2994,32 +3232,31 @@
       <c r="AF40" s="4"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="86"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="36" t="s">
-        <v>56</v>
+      <c r="A41" s="107"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="99" t="s">
+        <v>58</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>34</v>
+      <c r="D41" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39">
-        <v>5.0</v>
+      <c r="E41" s="100" t="s">
+        <v>21</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="83"/>
+      <c r="F41" s="101">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="102"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84">
-        <f t="shared" ref="Q41:Q51" si="5">SUM(M41:P41)</f>
-        <v>0</v>
-      </c>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -3037,30 +3274,32 @@
       <c r="AF41" s="4"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="86"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="93" t="s">
-        <v>57</v>
+      <c r="A42" s="96"/>
+      <c r="B42" s="109" t="s">
+        <v>59</v>
       </c>
-      <c r="D42" s="37" t="s">
-        <v>34</v>
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="114">
+        <f>SUM(F43:F52)</f>
+        <v>22</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95">
-        <v>4.0</v>
+      <c r="H42" s="113"/>
+      <c r="I42" s="114">
+        <f>SUM(H43:H52)</f>
+        <v>0</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97">
-        <f t="shared" si="5"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87">
+        <f t="shared" ref="Q42:Q46" si="5">SUM(M42:P42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="4"/>
@@ -3079,32 +3318,32 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="86"/>
-      <c r="B43" s="29" t="s">
-        <v>58</v>
+    <row r="43">
+      <c r="A43" s="96"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90" t="s">
+        <v>60</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="79">
-        <f>SUM(F44:F46)</f>
-        <v>5</v>
+      <c r="D43" s="37" t="s">
+        <v>36</v>
       </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="79">
-        <f>SUM(H44:H46)</f>
-        <v>0</v>
+      <c r="E43" s="97" t="s">
+        <v>19</v>
       </c>
+      <c r="F43" s="92">
+        <v>3.0</v>
+      </c>
+      <c r="G43" s="93"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="93"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80">
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3124,421 +3363,432 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="86"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="36" t="s">
-        <v>59</v>
+    <row r="44" ht="15.0" customHeight="1">
+      <c r="A44" s="115"/>
+      <c r="B44" s="116" t="s">
+        <v>61</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>34</v>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="119">
+        <f>SUM(F45:F58)</f>
+        <v>30</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39">
-        <v>2.0</v>
+      <c r="H44" s="117"/>
+      <c r="I44" s="119">
+        <f>SUM(H45:H58)</f>
+        <v>0</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84">
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="86"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="36" t="s">
-        <v>60</v>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="120"/>
+      <c r="AD44" s="120"/>
+      <c r="AE44" s="120"/>
+      <c r="AF44" s="120"/>
+    </row>
+    <row r="45" ht="15.0" customHeight="1">
+      <c r="A45" s="124"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="126" t="s">
+        <v>62</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>34</v>
+      <c r="D45" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39">
-        <v>2.0</v>
+      <c r="E45" s="97" t="s">
+        <v>19</v>
       </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84">
+      <c r="F45" s="128">
+        <v>3.0</v>
+      </c>
+      <c r="G45" s="129"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="131"/>
+      <c r="Q45" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="120"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="120"/>
+      <c r="AA45" s="120"/>
+      <c r="AB45" s="120"/>
+      <c r="AC45" s="120"/>
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="120"/>
+      <c r="AF45" s="120"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="86"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93" t="s">
-        <v>61</v>
+      <c r="A46" s="124"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="133" t="s">
+        <v>63</v>
       </c>
-      <c r="D46" s="98" t="s">
-        <v>62</v>
+      <c r="D46" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95">
-        <v>1.0</v>
+      <c r="E46" s="97" t="s">
+        <v>19</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97">
+      <c r="F46" s="128">
+        <v>2.0</v>
+      </c>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="131"/>
+      <c r="Q46" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="120"/>
+      <c r="V46" s="120"/>
+      <c r="W46" s="120"/>
+      <c r="X46" s="120"/>
+      <c r="Y46" s="120"/>
+      <c r="Z46" s="120"/>
+      <c r="AA46" s="120"/>
+      <c r="AB46" s="120"/>
+      <c r="AC46" s="120"/>
+      <c r="AD46" s="120"/>
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="120"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="99" t="s">
-        <v>63</v>
+      <c r="A47" s="124"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="133" t="s">
+        <v>64</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>45</v>
+      <c r="D47" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="79">
-        <f>SUM(F48:F51)</f>
-        <v>9</v>
+      <c r="E47" s="97" t="s">
+        <v>19</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="79">
-        <f>SUM(H48:H51)</f>
+      <c r="F47" s="128">
+        <v>4.0</v>
+      </c>
+      <c r="G47" s="129"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
+      <c r="Q47" s="131"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
+      <c r="U47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
+      <c r="Z47" s="120"/>
+      <c r="AA47" s="120"/>
+      <c r="AB47" s="120"/>
+      <c r="AC47" s="120"/>
+      <c r="AD47" s="120"/>
+      <c r="AE47" s="120"/>
+      <c r="AF47" s="120"/>
+    </row>
+    <row r="48" ht="15.0" customHeight="1">
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="128">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="129"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
+      <c r="Q48" s="132">
+        <f t="shared" ref="Q48:Q50" si="6">SUM(M48:P48)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80">
-        <f t="shared" si="5"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
+      <c r="U48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="120"/>
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="120"/>
+      <c r="AC48" s="120"/>
+      <c r="AD48" s="120"/>
+      <c r="AE48" s="120"/>
+      <c r="AF48" s="120"/>
+    </row>
+    <row r="49" ht="15.0" customHeight="1">
+      <c r="A49" s="115"/>
+      <c r="B49" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="119">
+        <f>SUM(F50:F58)</f>
+        <v>20</v>
+      </c>
+      <c r="H49" s="117"/>
+      <c r="I49" s="119">
+        <f>SUM(H50:H58)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-    </row>
-    <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="85"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101" t="s">
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="120"/>
+      <c r="AA49" s="120"/>
+      <c r="AB49" s="120"/>
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="120"/>
+      <c r="AE49" s="120"/>
+      <c r="AF49" s="120"/>
+    </row>
+    <row r="50" ht="33.0" customHeight="1">
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="137">
+        <v>3.0</v>
+      </c>
+      <c r="G50" s="129"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
+      <c r="Q50" s="132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="120"/>
+      <c r="X50" s="120"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="120"/>
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="120"/>
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="120"/>
+      <c r="AE50" s="120"/>
+      <c r="AF50" s="120"/>
+    </row>
+    <row r="51" ht="28.5" customHeight="1">
+      <c r="A51" s="138"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="137">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="142"/>
+      <c r="X51" s="142"/>
+      <c r="Y51" s="142"/>
+      <c r="Z51" s="142"/>
+      <c r="AA51" s="142"/>
+      <c r="AB51" s="142"/>
+      <c r="AC51" s="142"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="142"/>
+    </row>
+    <row r="52" ht="15.0" customHeight="1">
+      <c r="A52" s="124"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="54" t="s">
-        <v>34</v>
+      <c r="D52" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E48" s="102"/>
-      <c r="F48" s="103">
+      <c r="E52" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="128">
         <v>3.0</v>
       </c>
-      <c r="G48" s="104"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106">
-        <f t="shared" si="5"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
+      <c r="Q52" s="132">
+        <f t="shared" ref="Q52:Q55" si="7">SUM(M52:P52)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="107" t="s">
-        <v>47</v>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="120"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
+      <c r="Y52" s="120"/>
+      <c r="Z52" s="120"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="120"/>
+      <c r="AE52" s="120"/>
+      <c r="AF52" s="120"/>
+    </row>
+    <row r="53" ht="15.0" customHeight="1">
+      <c r="A53" s="96"/>
+      <c r="B53" s="84" t="s">
+        <v>69</v>
       </c>
-      <c r="D49" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-    </row>
-    <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109">
-        <v>2.0</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-    </row>
-    <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="112"/>
-      <c r="F51" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="G51" s="114"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="112"/>
-      <c r="F52" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="114"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-    </row>
-    <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="78"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="45"/>
       <c r="E53" s="46"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="79">
-        <f>SUM(F54:F58)</f>
-        <v>17</v>
+      <c r="F53" s="77"/>
+      <c r="G53" s="86">
+        <f>SUM(F54:F57)</f>
+        <v>11</v>
       </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="79">
-        <f>SUM(H54:H58)</f>
+      <c r="H53" s="77"/>
+      <c r="I53" s="86">
+        <f>SUM(H54:H57)</f>
         <v>0</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80">
-        <f t="shared" ref="Q53:Q62" si="6">SUM(M53:P53)</f>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R53" s="4"/>
@@ -3558,30 +3808,32 @@
       <c r="AF53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="51"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="107" t="s">
-        <v>68</v>
+      <c r="A54" s="96"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="90" t="s">
+        <v>70</v>
       </c>
-      <c r="D54" s="54" t="s">
-        <v>34</v>
+      <c r="D54" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109">
-        <v>1.0</v>
+      <c r="E54" s="97" t="s">
+        <v>23</v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="57"/>
+      <c r="F54" s="92">
+        <v>5.0</v>
+      </c>
+      <c r="G54" s="93"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="93"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76">
-        <f t="shared" si="6"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R54" s="4"/>
@@ -3601,30 +3853,32 @@
       <c r="AF54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="51"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="107" t="s">
-        <v>69</v>
+      <c r="A55" s="96"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90" t="s">
+        <v>71</v>
       </c>
-      <c r="D55" s="54" t="s">
-        <v>34</v>
+      <c r="D55" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="109">
-        <v>5.0</v>
+      <c r="E55" s="97" t="s">
+        <v>23</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="57"/>
+      <c r="F55" s="92">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="93"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="93"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76">
-        <f t="shared" si="6"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R55" s="4"/>
@@ -3644,32 +3898,31 @@
       <c r="AF55" s="4"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="107" t="s">
-        <v>70</v>
+      <c r="A56" s="96"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="105" t="s">
+        <v>72</v>
       </c>
-      <c r="D56" s="54" t="s">
-        <v>34</v>
+      <c r="D56" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E56" s="108"/>
-      <c r="F56" s="109">
-        <v>5.0</v>
+      <c r="E56" s="97" t="s">
+        <v>23</v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="57"/>
+      <c r="F56" s="101">
+        <v>2.0</v>
+      </c>
+      <c r="G56" s="102"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="102"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -3687,30 +3940,32 @@
       <c r="AF56" s="4"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="51"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="107" t="s">
-        <v>71</v>
+      <c r="A57" s="96"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="145" t="s">
+        <v>73</v>
       </c>
-      <c r="D57" s="54" t="s">
-        <v>34</v>
+      <c r="D57" s="127" t="s">
+        <v>36</v>
       </c>
-      <c r="E57" s="108"/>
-      <c r="F57" s="109">
+      <c r="E57" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="146">
         <v>3.0</v>
       </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="57"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="147"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76">
-        <f t="shared" si="6"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106">
+        <f t="shared" ref="Q57:Q62" si="8">SUM(M57:P57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="4"/>
@@ -3730,75 +3985,71 @@
       <c r="AF57" s="4"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="111" t="s">
-        <v>72</v>
+      <c r="A58" s="149" t="s">
+        <v>74</v>
       </c>
-      <c r="D58" s="54" t="s">
-        <v>34</v>
+      <c r="B58" s="29" t="s">
+        <v>75</v>
       </c>
-      <c r="E58" s="112"/>
-      <c r="F58" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="G58" s="114"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115">
-        <f t="shared" si="6"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="86">
+        <f>SUM(F59:F62)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-    </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="121">
-        <f>SUM(F60:F61)</f>
-        <v>6</v>
-      </c>
-      <c r="H59" s="120"/>
-      <c r="I59" s="121">
-        <f>SUM(H60:H61)</f>
+      <c r="H58" s="49"/>
+      <c r="I58" s="86">
+        <f>SUM(H59:H62)</f>
         <v>0</v>
       </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" ht="15.0" customHeight="1">
+      <c r="A59" s="150"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="156"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122">
-        <f t="shared" si="6"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="157">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R59" s="4"/>
@@ -3817,31 +4068,25 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="123"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="108"/>
-      <c r="F60" s="124">
-        <v>6.0</v>
-      </c>
-      <c r="G60" s="104"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="105"/>
+    <row r="60" ht="15.0" customHeight="1">
+      <c r="A60" s="51"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106">
-        <f t="shared" si="6"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R60" s="4"/>
@@ -3861,24 +4106,24 @@
       <c r="AF60" s="4"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="125"/>
-      <c r="B61" s="110"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="114"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="160"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115">
-        <f t="shared" si="6"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R61" s="4"/>
@@ -3897,189 +4142,180 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="128"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="131">
-        <f t="shared" ref="F62:G62" si="7">SUM(F5:F61)</f>
-        <v>110</v>
-      </c>
-      <c r="G62" s="132">
-        <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="H62" s="133">
-        <f>SUM(M62:P62)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="132">
-        <f>SUM(I5:I61)</f>
-        <v>23</v>
-      </c>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="133">
-        <f t="shared" ref="M62:P62" si="8">SUM(M5:M61)</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="133">
+    <row r="62" ht="15.0" customHeight="1">
+      <c r="A62" s="51"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="163"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="166"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="166"/>
+      <c r="Q62" s="166">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O62" s="133">
-        <f t="shared" si="8"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+    </row>
+    <row r="63" ht="15.0" customHeight="1">
+      <c r="A63" s="51"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="166"/>
+      <c r="N63" s="166"/>
+      <c r="O63" s="166"/>
+      <c r="P63" s="166"/>
+      <c r="Q63" s="166"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+    </row>
+    <row r="64" ht="15.0" customHeight="1">
+      <c r="A64" s="51"/>
+      <c r="B64" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="86">
+        <f>SUM(F65:F69)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="133">
-        <f t="shared" si="8"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="86">
+        <f>SUM(H65:H69)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="133">
-        <f t="shared" si="6"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="87"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87">
+        <f t="shared" ref="Q64:Q73" si="9">SUM(M64:P64)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="134"/>
-      <c r="S62" s="134"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="134"/>
-      <c r="V62" s="134"/>
-      <c r="W62" s="134"/>
-      <c r="X62" s="134"/>
-      <c r="Y62" s="134"/>
-      <c r="Z62" s="134"/>
-      <c r="AA62" s="134"/>
-      <c r="AB62" s="134"/>
-      <c r="AC62" s="134"/>
-      <c r="AD62" s="134"/>
-      <c r="AE62" s="134"/>
-      <c r="AF62" s="134"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
-      <c r="AF63" s="8"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="8"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="8"/>
-      <c r="AF65" s="8"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="51"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="4"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -4096,24 +4332,27 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+    <row r="67" ht="15.0" customHeight="1">
+      <c r="A67" s="51"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="4"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -4130,24 +4369,27 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+    <row r="68" ht="15.0" customHeight="1">
+      <c r="A68" s="51"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="57"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="4"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -4164,24 +4406,27 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+    <row r="69" ht="15.0" customHeight="1">
+      <c r="A69" s="51"/>
+      <c r="B69" s="161"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="164"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="164"/>
+      <c r="I69" s="165"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="4"/>
+      <c r="M69" s="166"/>
+      <c r="N69" s="166"/>
+      <c r="O69" s="166"/>
+      <c r="P69" s="166"/>
+      <c r="Q69" s="166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -4198,24 +4443,35 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+    <row r="70" ht="15.0" customHeight="1">
+      <c r="A70" s="51"/>
+      <c r="B70" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="168"/>
+      <c r="D70" s="169"/>
+      <c r="E70" s="170"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="172">
+        <f>SUM(F71:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="171"/>
+      <c r="I70" s="172">
+        <f>SUM(H71:H72)</f>
+        <v>0</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="4"/>
+      <c r="M70" s="173"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="173"/>
+      <c r="P70" s="173"/>
+      <c r="Q70" s="173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -4233,23 +4489,26 @@
       <c r="AF70" s="4"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="A71" s="174"/>
+      <c r="B71" s="151"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="156"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="4"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="157"/>
+      <c r="O71" s="157"/>
+      <c r="P71" s="157"/>
+      <c r="Q71" s="157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -4266,24 +4525,27 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+    <row r="72" ht="15.0" customHeight="1">
+      <c r="A72" s="176"/>
+      <c r="B72" s="161"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="177"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="164"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="165"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="4"/>
+      <c r="M72" s="166"/>
+      <c r="N72" s="166"/>
+      <c r="O72" s="166"/>
+      <c r="P72" s="166"/>
+      <c r="Q72" s="166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -4300,141 +4562,170 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
+    <row r="73" ht="12.75" customHeight="1">
+      <c r="A73" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="179"/>
+      <c r="C73" s="180"/>
+      <c r="D73" s="180"/>
+      <c r="E73" s="181"/>
+      <c r="F73" s="182">
+        <f t="shared" ref="F73:G73" si="10">SUM(F5:F72)</f>
+        <v>105</v>
+      </c>
+      <c r="G73" s="183">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="H73" s="184">
+        <f>SUM(M73:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="183">
+        <f>SUM(I5:I72)</f>
+        <v>74</v>
+      </c>
+      <c r="J73" s="185"/>
+      <c r="K73" s="185"/>
+      <c r="L73" s="185"/>
+      <c r="M73" s="184">
+        <f t="shared" ref="M73:P73" si="11">SUM(M5:M72)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="185"/>
+      <c r="S73" s="185"/>
+      <c r="T73" s="185"/>
+      <c r="U73" s="185"/>
+      <c r="V73" s="185"/>
+      <c r="W73" s="185"/>
+      <c r="X73" s="185"/>
+      <c r="Y73" s="185"/>
+      <c r="Z73" s="185"/>
+      <c r="AA73" s="185"/>
+      <c r="AB73" s="185"/>
+      <c r="AC73" s="185"/>
+      <c r="AD73" s="185"/>
+      <c r="AE73" s="185"/>
+      <c r="AF73" s="185"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="186"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+    </row>
+    <row r="75" ht="12.75" customHeight="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="186"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -35750,12 +36041,385 @@
       <c r="AE997" s="4"/>
       <c r="AF997" s="4"/>
     </row>
+    <row r="998">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="3"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+      <c r="K998" s="4"/>
+      <c r="L998" s="4"/>
+      <c r="M998" s="6"/>
+      <c r="N998" s="6"/>
+      <c r="O998" s="6"/>
+      <c r="P998" s="6"/>
+      <c r="Q998" s="4"/>
+      <c r="R998" s="4"/>
+      <c r="S998" s="4"/>
+      <c r="T998" s="4"/>
+      <c r="U998" s="4"/>
+      <c r="V998" s="4"/>
+      <c r="W998" s="4"/>
+      <c r="X998" s="4"/>
+      <c r="Y998" s="4"/>
+      <c r="Z998" s="4"/>
+      <c r="AA998" s="4"/>
+      <c r="AB998" s="4"/>
+      <c r="AC998" s="4"/>
+      <c r="AD998" s="4"/>
+      <c r="AE998" s="4"/>
+      <c r="AF998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="3"/>
+      <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="5"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="6"/>
+      <c r="N999" s="6"/>
+      <c r="O999" s="6"/>
+      <c r="P999" s="6"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+      <c r="Z999" s="4"/>
+      <c r="AA999" s="4"/>
+      <c r="AB999" s="4"/>
+      <c r="AC999" s="4"/>
+      <c r="AD999" s="4"/>
+      <c r="AE999" s="4"/>
+      <c r="AF999" s="4"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="3"/>
+      <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="J1000" s="4"/>
+      <c r="K1000" s="4"/>
+      <c r="L1000" s="4"/>
+      <c r="M1000" s="6"/>
+      <c r="N1000" s="6"/>
+      <c r="O1000" s="6"/>
+      <c r="P1000" s="6"/>
+      <c r="Q1000" s="4"/>
+      <c r="R1000" s="4"/>
+      <c r="S1000" s="4"/>
+      <c r="T1000" s="4"/>
+      <c r="U1000" s="4"/>
+      <c r="V1000" s="4"/>
+      <c r="W1000" s="4"/>
+      <c r="X1000" s="4"/>
+      <c r="Y1000" s="4"/>
+      <c r="Z1000" s="4"/>
+      <c r="AA1000" s="4"/>
+      <c r="AB1000" s="4"/>
+      <c r="AC1000" s="4"/>
+      <c r="AD1000" s="4"/>
+      <c r="AE1000" s="4"/>
+      <c r="AF1000" s="4"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="5"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="K1001" s="4"/>
+      <c r="L1001" s="4"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+      <c r="AA1001" s="4"/>
+      <c r="AB1001" s="4"/>
+      <c r="AC1001" s="4"/>
+      <c r="AD1001" s="4"/>
+      <c r="AE1001" s="4"/>
+      <c r="AF1001" s="4"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="5"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="6"/>
+      <c r="N1002" s="6"/>
+      <c r="O1002" s="6"/>
+      <c r="P1002" s="6"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+      <c r="AA1002" s="4"/>
+      <c r="AB1002" s="4"/>
+      <c r="AC1002" s="4"/>
+      <c r="AD1002" s="4"/>
+      <c r="AE1002" s="4"/>
+      <c r="AF1002" s="4"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+      <c r="G1003" s="5"/>
+      <c r="H1003" s="4"/>
+      <c r="I1003" s="4"/>
+      <c r="J1003" s="4"/>
+      <c r="K1003" s="4"/>
+      <c r="L1003" s="4"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="4"/>
+      <c r="R1003" s="4"/>
+      <c r="S1003" s="4"/>
+      <c r="T1003" s="4"/>
+      <c r="U1003" s="4"/>
+      <c r="V1003" s="4"/>
+      <c r="W1003" s="4"/>
+      <c r="X1003" s="4"/>
+      <c r="Y1003" s="4"/>
+      <c r="Z1003" s="4"/>
+      <c r="AA1003" s="4"/>
+      <c r="AB1003" s="4"/>
+      <c r="AC1003" s="4"/>
+      <c r="AD1003" s="4"/>
+      <c r="AE1003" s="4"/>
+      <c r="AF1003" s="4"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="5"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="4"/>
+      <c r="J1004" s="4"/>
+      <c r="K1004" s="4"/>
+      <c r="L1004" s="4"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="4"/>
+      <c r="R1004" s="4"/>
+      <c r="S1004" s="4"/>
+      <c r="T1004" s="4"/>
+      <c r="U1004" s="4"/>
+      <c r="V1004" s="4"/>
+      <c r="W1004" s="4"/>
+      <c r="X1004" s="4"/>
+      <c r="Y1004" s="4"/>
+      <c r="Z1004" s="4"/>
+      <c r="AA1004" s="4"/>
+      <c r="AB1004" s="4"/>
+      <c r="AC1004" s="4"/>
+      <c r="AD1004" s="4"/>
+      <c r="AE1004" s="4"/>
+      <c r="AF1004" s="4"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="3"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+      <c r="G1005" s="5"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="4"/>
+      <c r="J1005" s="4"/>
+      <c r="K1005" s="4"/>
+      <c r="L1005" s="4"/>
+      <c r="M1005" s="6"/>
+      <c r="N1005" s="6"/>
+      <c r="O1005" s="6"/>
+      <c r="P1005" s="6"/>
+      <c r="Q1005" s="4"/>
+      <c r="R1005" s="4"/>
+      <c r="S1005" s="4"/>
+      <c r="T1005" s="4"/>
+      <c r="U1005" s="4"/>
+      <c r="V1005" s="4"/>
+      <c r="W1005" s="4"/>
+      <c r="X1005" s="4"/>
+      <c r="Y1005" s="4"/>
+      <c r="Z1005" s="4"/>
+      <c r="AA1005" s="4"/>
+      <c r="AB1005" s="4"/>
+      <c r="AC1005" s="4"/>
+      <c r="AD1005" s="4"/>
+      <c r="AE1005" s="4"/>
+      <c r="AF1005" s="4"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="3"/>
+      <c r="E1006" s="4"/>
+      <c r="F1006" s="4"/>
+      <c r="G1006" s="5"/>
+      <c r="H1006" s="4"/>
+      <c r="I1006" s="4"/>
+      <c r="J1006" s="4"/>
+      <c r="K1006" s="4"/>
+      <c r="L1006" s="4"/>
+      <c r="M1006" s="6"/>
+      <c r="N1006" s="6"/>
+      <c r="O1006" s="6"/>
+      <c r="P1006" s="6"/>
+      <c r="Q1006" s="4"/>
+      <c r="R1006" s="4"/>
+      <c r="S1006" s="4"/>
+      <c r="T1006" s="4"/>
+      <c r="U1006" s="4"/>
+      <c r="V1006" s="4"/>
+      <c r="W1006" s="4"/>
+      <c r="X1006" s="4"/>
+      <c r="Y1006" s="4"/>
+      <c r="Z1006" s="4"/>
+      <c r="AA1006" s="4"/>
+      <c r="AB1006" s="4"/>
+      <c r="AC1006" s="4"/>
+      <c r="AD1006" s="4"/>
+      <c r="AE1006" s="4"/>
+      <c r="AF1006" s="4"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="3"/>
+      <c r="E1007" s="4"/>
+      <c r="F1007" s="4"/>
+      <c r="G1007" s="5"/>
+      <c r="H1007" s="4"/>
+      <c r="I1007" s="4"/>
+      <c r="J1007" s="4"/>
+      <c r="K1007" s="4"/>
+      <c r="L1007" s="4"/>
+      <c r="M1007" s="6"/>
+      <c r="N1007" s="6"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="4"/>
+      <c r="R1007" s="4"/>
+      <c r="S1007" s="4"/>
+      <c r="T1007" s="4"/>
+      <c r="U1007" s="4"/>
+      <c r="V1007" s="4"/>
+      <c r="W1007" s="4"/>
+      <c r="X1007" s="4"/>
+      <c r="Y1007" s="4"/>
+      <c r="Z1007" s="4"/>
+      <c r="AA1007" s="4"/>
+      <c r="AB1007" s="4"/>
+      <c r="AC1007" s="4"/>
+      <c r="AD1007" s="4"/>
+      <c r="AE1007" s="4"/>
+      <c r="AF1007" s="4"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="3"/>
+      <c r="E1008" s="4"/>
+      <c r="F1008" s="4"/>
+      <c r="G1008" s="5"/>
+      <c r="H1008" s="4"/>
+      <c r="I1008" s="4"/>
+      <c r="J1008" s="4"/>
+      <c r="K1008" s="4"/>
+      <c r="L1008" s="4"/>
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="4"/>
+      <c r="R1008" s="4"/>
+      <c r="S1008" s="4"/>
+      <c r="T1008" s="4"/>
+      <c r="U1008" s="4"/>
+      <c r="V1008" s="4"/>
+      <c r="W1008" s="4"/>
+      <c r="X1008" s="4"/>
+      <c r="Y1008" s="4"/>
+      <c r="Z1008" s="4"/>
+      <c r="AA1008" s="4"/>
+      <c r="AB1008" s="4"/>
+      <c r="AC1008" s="4"/>
+      <c r="AD1008" s="4"/>
+      <c r="AE1008" s="4"/>
+      <c r="AF1008" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A47:A48"/>
+  <mergeCells count="1">
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5 I7:I15 I20:I62 M5:Q62">
+  <conditionalFormatting sqref="I5 M5:Q73 I7:I15 I21:I73">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Team17_Estimated_Effort.xlsx
+++ b/Team17_Estimated_Effort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtrem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ae3270d521fe027/School Files/CS 451 - Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F9F03-4278-4F78-8AD7-357B54F48C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFF73C7-8497-41BA-A73D-CA331220CBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1_Estimated_Effort" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -271,12 +271,6 @@
     <t>Configuration and settings information</t>
   </si>
   <si>
-    <t>Writing the report</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Final Architecture Report Revisions</t>
   </si>
   <si>
@@ -293,6 +287,39 @@
   </si>
   <si>
     <t>Project Results</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>Liam Floyd, Ryan Shepherd</t>
+  </si>
+  <si>
+    <t>Beginning final presentation</t>
+  </si>
+  <si>
+    <t>Project Manager, architects</t>
+  </si>
+  <si>
+    <t>Cloud server structure</t>
+  </si>
+  <si>
+    <t>cloud costs</t>
+  </si>
+  <si>
+    <t>Comparison of cloud service providers</t>
+  </si>
+  <si>
+    <t>Final budget costs</t>
+  </si>
+  <si>
+    <t>Intrusion Detection hardware</t>
+  </si>
+  <si>
+    <t>any other diagram updates</t>
+  </si>
+  <si>
+    <t>Project Manager, Architectws</t>
   </si>
 </sst>
 </file>
@@ -420,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -767,11 +794,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1168,65 +1226,17 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,11 +1268,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1009"/>
+  <dimension ref="A1:AF1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2482,7 @@
       <c r="H21" s="73">
         <v>1</v>
       </c>
-      <c r="I21" s="57"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2480,7 +2526,7 @@
       <c r="H22" s="73">
         <v>1</v>
       </c>
-      <c r="I22" s="57"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2527,7 +2573,7 @@
       <c r="H23" s="66">
         <v>0</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2571,7 +2617,7 @@
       <c r="H24" s="66">
         <v>6</v>
       </c>
-      <c r="I24" s="67"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2657,7 +2703,7 @@
       <c r="H26" s="73">
         <v>2</v>
       </c>
-      <c r="I26" s="57"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2704,7 +2750,7 @@
       <c r="H27" s="73">
         <v>0</v>
       </c>
-      <c r="I27" s="57"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2751,7 +2797,7 @@
       <c r="H28" s="66">
         <v>1</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2840,7 +2886,7 @@
       <c r="H30" s="73">
         <v>2</v>
       </c>
-      <c r="I30" s="57"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2887,7 +2933,7 @@
       <c r="H31" s="73">
         <v>4</v>
       </c>
-      <c r="I31" s="57"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2931,7 +2977,7 @@
       <c r="H32" s="73">
         <v>0</v>
       </c>
-      <c r="I32" s="57"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2978,7 +3024,7 @@
       <c r="H33" s="66">
         <v>2</v>
       </c>
-      <c r="I33" s="67"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3021,7 +3067,7 @@
       <c r="H34" s="77"/>
       <c r="I34" s="86">
         <f>SUM(H35:H40)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -3066,7 +3112,9 @@
         <v>15</v>
       </c>
       <c r="G35" s="93"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>31</v>
+      </c>
       <c r="I35" s="93"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3111,7 +3159,7 @@
       <c r="H36" s="77"/>
       <c r="I36" s="86">
         <f>SUM(H37:H42)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3156,7 +3204,9 @@
         <v>1</v>
       </c>
       <c r="G37" s="93"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>2</v>
+      </c>
       <c r="I37" s="93"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3201,7 +3251,9 @@
         <v>1</v>
       </c>
       <c r="G38" s="93"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>2</v>
+      </c>
       <c r="I38" s="93"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3246,8 +3298,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="102"/>
+      <c r="H39" s="103">
+        <v>2</v>
+      </c>
+      <c r="I39" s="93"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -3288,8 +3342,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="102"/>
+      <c r="H40" s="103">
+        <v>2</v>
+      </c>
+      <c r="I40" s="93"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -3333,8 +3389,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="102"/>
+      <c r="H41" s="103">
+        <v>3</v>
+      </c>
+      <c r="I41" s="93"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -3369,13 +3427,13 @@
       <c r="E42" s="112"/>
       <c r="F42" s="113"/>
       <c r="G42" s="114">
-        <f>SUM(F43:F52)</f>
-        <v>22</v>
+        <f>SUM(F43:F51)</f>
+        <v>19</v>
       </c>
       <c r="H42" s="113"/>
       <c r="I42" s="114">
-        <f>SUM(H43:H52)</f>
-        <v>0</v>
+        <f>SUM(H43:H51)</f>
+        <v>7</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3420,7 +3478,9 @@
         <v>3</v>
       </c>
       <c r="G43" s="93"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="I43" s="93"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3459,13 +3519,13 @@
       <c r="E44" s="117"/>
       <c r="F44" s="117"/>
       <c r="G44" s="119">
-        <f>SUM(F45:F58)</f>
-        <v>30</v>
+        <f>SUM(F45:F56)</f>
+        <v>24</v>
       </c>
       <c r="H44" s="117"/>
       <c r="I44" s="119">
-        <f>SUM(H45:H58)</f>
-        <v>0</v>
+        <f>SUM(H45:H56)</f>
+        <v>13</v>
       </c>
       <c r="J44" s="120"/>
       <c r="K44" s="120"/>
@@ -3510,8 +3570,10 @@
         <v>3</v>
       </c>
       <c r="G45" s="129"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="129"/>
+      <c r="H45" s="130">
+        <v>1</v>
+      </c>
+      <c r="I45" s="93"/>
       <c r="J45" s="120"/>
       <c r="K45" s="120"/>
       <c r="L45" s="121"/>
@@ -3555,8 +3617,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="129"/>
+      <c r="H46" s="130">
+        <v>1</v>
+      </c>
+      <c r="I46" s="93"/>
       <c r="J46" s="120"/>
       <c r="K46" s="120"/>
       <c r="L46" s="121"/>
@@ -3600,8 +3664,10 @@
         <v>4</v>
       </c>
       <c r="G47" s="129"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="129"/>
+      <c r="H47" s="130">
+        <v>1</v>
+      </c>
+      <c r="I47" s="93"/>
       <c r="J47" s="120"/>
       <c r="K47" s="120"/>
       <c r="L47" s="121"/>
@@ -3642,8 +3708,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="129"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="129"/>
+      <c r="H48" s="130">
+        <v>1</v>
+      </c>
+      <c r="I48" s="93"/>
       <c r="J48" s="120"/>
       <c r="K48" s="120"/>
       <c r="L48" s="121"/>
@@ -3681,13 +3749,13 @@
       <c r="E49" s="117"/>
       <c r="F49" s="117"/>
       <c r="G49" s="119">
-        <f>SUM(F50:F58)</f>
-        <v>20</v>
+        <f>SUM(F50:F56)</f>
+        <v>14</v>
       </c>
       <c r="H49" s="117"/>
       <c r="I49" s="119">
-        <f>SUM(H50:H58)</f>
-        <v>0</v>
+        <f>SUM(H50:H56)</f>
+        <v>9</v>
       </c>
       <c r="J49" s="120"/>
       <c r="K49" s="120"/>
@@ -3732,8 +3800,10 @@
         <v>3</v>
       </c>
       <c r="G50" s="129"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="129"/>
+      <c r="H50" s="130">
+        <v>3</v>
+      </c>
+      <c r="I50" s="93"/>
       <c r="J50" s="120"/>
       <c r="K50" s="120"/>
       <c r="L50" s="121"/>
@@ -3771,14 +3841,16 @@
         <v>36</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F51" s="137">
         <v>3</v>
       </c>
       <c r="G51" s="140"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="140"/>
+      <c r="H51" s="141">
+        <v>0</v>
+      </c>
+      <c r="I51" s="93"/>
       <c r="J51" s="142"/>
       <c r="K51" s="142"/>
       <c r="L51" s="143"/>
@@ -3803,77 +3875,79 @@
       <c r="AE51" s="142"/>
       <c r="AF51" s="142"/>
     </row>
-    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="133" t="s">
-        <v>64</v>
+    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="96"/>
+      <c r="B52" s="84" t="s">
+        <v>69</v>
       </c>
-      <c r="D52" s="127" t="s">
+      <c r="C52" s="85"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="86">
+        <f>SUM(F53:F55)</f>
+        <v>8</v>
+      </c>
+      <c r="H52" s="77"/>
+      <c r="I52" s="86">
+        <f>SUM(H53:H55)</f>
+        <v>6</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87">
+        <f t="shared" ref="Q52:Q54" si="6">SUM(M52:P52)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="96"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="97" t="s">
+      <c r="E53" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="128">
+      <c r="F53" s="92">
+        <v>5</v>
+      </c>
+      <c r="G53" s="93"/>
+      <c r="H53" s="39">
         <v>3</v>
       </c>
-      <c r="G52" s="129"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="131"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="132">
-        <f t="shared" ref="Q52:Q55" si="6">SUM(M52:P52)</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="120"/>
-      <c r="Y52" s="120"/>
-      <c r="Z52" s="120"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="120"/>
-      <c r="AC52" s="120"/>
-      <c r="AD52" s="120"/>
-      <c r="AE52" s="120"/>
-      <c r="AF52" s="120"/>
-    </row>
-    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="96"/>
-      <c r="B53" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="86">
-        <f>SUM(F54:F57)</f>
-        <v>11</v>
-      </c>
-      <c r="H53" s="77"/>
-      <c r="I53" s="86">
-        <f>SUM(H54:H57)</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="93"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87">
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3893,23 +3967,25 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="96"/>
       <c r="B54" s="89"/>
       <c r="C54" s="90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" s="127" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F54" s="92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="93"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>3</v>
+      </c>
       <c r="I54" s="93"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3938,11 +4014,11 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="96"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="90" t="s">
-        <v>71</v>
+      <c r="B55" s="98"/>
+      <c r="C55" s="105" t="s">
+        <v>72</v>
       </c>
       <c r="D55" s="127" t="s">
         <v>36</v>
@@ -3950,23 +4026,22 @@
       <c r="E55" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="92">
-        <v>1</v>
+      <c r="F55" s="101">
+        <v>2</v>
       </c>
-      <c r="G55" s="93"/>
-      <c r="H55" s="39"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103">
+        <v>0</v>
+      </c>
       <c r="I55" s="93"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
@@ -3983,75 +4058,80 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="96"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="105" t="s">
-        <v>72</v>
+    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="159" t="s">
+        <v>74</v>
       </c>
-      <c r="D56" s="127" t="s">
-        <v>36</v>
+      <c r="B56" s="29" t="s">
+        <v>50</v>
       </c>
-      <c r="E56" s="97" t="s">
+      <c r="C56" s="85"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="86">
+        <f>SUM(F57:F59)</f>
         <v>23</v>
       </c>
-      <c r="F56" s="101">
-        <v>2</v>
+      <c r="H56" s="49"/>
+      <c r="I56" s="47">
+        <f>SUM(H57:H59)</f>
+        <v>0</v>
       </c>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-    </row>
-    <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="96"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87">
+        <f t="shared" ref="Q56:Q59" si="7">SUM(M56:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+    </row>
+    <row r="57" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="160"/>
       <c r="B57" s="144"/>
       <c r="C57" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="127" t="s">
+      <c r="D57" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="97" t="s">
-        <v>23</v>
+      <c r="E57" s="169" t="s">
+        <v>15</v>
       </c>
-      <c r="F57" s="146">
-        <v>3</v>
+      <c r="F57" s="166">
+        <v>15</v>
       </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="147"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="162"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106">
-        <f t="shared" ref="Q57:Q62" si="7">SUM(M57:P57)</f>
+      <c r="M57" s="146"/>
+      <c r="N57" s="146"/>
+      <c r="O57" s="146"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R57" s="4"/>
@@ -4070,73 +4150,77 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="174" t="s">
-        <v>76</v>
+    <row r="58" spans="1:32" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="147" t="s">
+        <v>81</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>50</v>
+      <c r="D58" s="165" t="s">
+        <v>82</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="86">
-        <f>SUM(F59:F62)</f>
-        <v>0</v>
+      <c r="E58" s="169" t="s">
+        <v>15</v>
       </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="86">
-        <f>SUM(H59:H62)</f>
-        <v>0</v>
+      <c r="F58" s="162">
+        <v>5</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87">
+      <c r="G58" s="171"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
     </row>
     <row r="59" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="175"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="150" t="s">
-        <v>75</v>
+      <c r="A59" s="161"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="164" t="s">
+        <v>60</v>
       </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="154"/>
+      <c r="D59" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="162">
+        <v>3</v>
+      </c>
+      <c r="G59" s="171"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="155">
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4158,25 +4242,30 @@
     </row>
     <row r="60" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="57"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="162">
+        <v>4</v>
+      </c>
+      <c r="G60" s="171"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="162"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M60" s="148"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="148"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="148"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -4194,24 +4283,38 @@
       <c r="AF60" s="4"/>
     </row>
     <row r="61" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="57"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="162">
+        <v>3</v>
+      </c>
+      <c r="G61" s="171">
+        <f>SUM(F62:F66)</f>
+        <v>12</v>
+      </c>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162">
+        <f>SUM(H62:H66)</f>
+        <v>0</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81">
-        <f t="shared" si="7"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87">
+        <f t="shared" ref="Q61:Q71" si="8">SUM(M61:P61)</f>
         <v>0</v>
       </c>
       <c r="R61" s="4"/>
@@ -4230,25 +4333,33 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="163"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="162">
+        <v>5</v>
+      </c>
+      <c r="G62" s="171"/>
       <c r="H62" s="162"/>
-      <c r="I62" s="163"/>
+      <c r="I62" s="162"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="164"/>
-      <c r="N62" s="164"/>
-      <c r="O62" s="164"/>
-      <c r="P62" s="164"/>
-      <c r="Q62" s="164">
-        <f t="shared" si="7"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R62" s="4"/>
@@ -4267,24 +4378,35 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
     </row>
-    <row r="63" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="163"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="162">
+        <v>5</v>
+      </c>
+      <c r="G63" s="171"/>
       <c r="H63" s="162"/>
-      <c r="I63" s="163"/>
+      <c r="I63" s="162"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="164"/>
-      <c r="N63" s="164"/>
-      <c r="O63" s="164"/>
-      <c r="P63" s="164"/>
-      <c r="Q63" s="164"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -4303,31 +4425,31 @@
     </row>
     <row r="64" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
-      <c r="B64" s="29" t="s">
-        <v>74</v>
+      <c r="B64" s="78"/>
+      <c r="C64" s="147" t="s">
+        <v>87</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="86">
-        <f>SUM(F65:F69)</f>
-        <v>0</v>
+      <c r="D64" s="165" t="s">
+        <v>36</v>
       </c>
-      <c r="H64" s="77"/>
-      <c r="I64" s="86">
-        <f>SUM(H65:H69)</f>
-        <v>0</v>
+      <c r="E64" s="169" t="s">
+        <v>23</v>
       </c>
+      <c r="F64" s="162">
+        <v>2</v>
+      </c>
+      <c r="G64" s="171"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="87"/>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="87">
-        <f t="shared" ref="Q64:Q74" si="8">SUM(M64:P64)</f>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R64" s="4"/>
@@ -4346,16 +4468,22 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
     </row>
-    <row r="65" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65" s="78"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="158"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="57"/>
+      <c r="C65" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="162"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="162"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -4383,24 +4511,34 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
     </row>
-    <row r="66" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="158"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="57"/>
+    <row r="66" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="85"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="86">
+        <f>SUM(F67:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="49"/>
+      <c r="I66" s="114">
+        <f>SUM(H67:H70)</f>
+        <v>0</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81">
+      <c r="M66" s="148"/>
+      <c r="N66" s="148"/>
+      <c r="O66" s="148"/>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4420,27 +4558,26 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="158"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="158"/>
-      <c r="I67" s="57"/>
+    <row r="67" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="127"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="93"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="81"/>
-      <c r="N67" s="81"/>
-      <c r="O67" s="81"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="M67" s="158"/>
+      <c r="N67" s="158"/>
+      <c r="O67" s="158"/>
+      <c r="P67" s="158"/>
+      <c r="Q67" s="158"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -4457,24 +4594,26 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="157"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="57"/>
+    <row r="68" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="89"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="127"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="93"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="81"/>
-      <c r="N68" s="81"/>
-      <c r="O68" s="81"/>
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81">
+      <c r="M68" s="149"/>
+      <c r="N68" s="149"/>
+      <c r="O68" s="149"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="149">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4494,34 +4633,26 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
     </row>
-    <row r="69" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
-        <v>77</v>
+    <row r="69" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="89"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="90" t="s">
+        <v>78</v>
       </c>
-      <c r="B69" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="86">
-        <f>SUM(F70:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="49"/>
-      <c r="I69" s="86">
-        <f>SUM(H70:H73)</f>
-        <v>0</v>
-      </c>
+      <c r="D69" s="127"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="93"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="164"/>
-      <c r="N69" s="164"/>
-      <c r="O69" s="164"/>
-      <c r="P69" s="164"/>
-      <c r="Q69" s="164">
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="146"/>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4544,9 +4675,7 @@
     <row r="70" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="89"/>
       <c r="B70" s="89"/>
-      <c r="C70" s="90" t="s">
-        <v>78</v>
-      </c>
+      <c r="C70" s="90"/>
       <c r="D70" s="127"/>
       <c r="E70" s="97"/>
       <c r="F70" s="92"/>
@@ -4556,11 +4685,14 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="176"/>
-      <c r="N70" s="176"/>
-      <c r="O70" s="176"/>
-      <c r="P70" s="176"/>
-      <c r="Q70" s="176"/>
+      <c r="M70" s="148"/>
+      <c r="N70" s="148"/>
+      <c r="O70" s="148"/>
+      <c r="P70" s="148"/>
+      <c r="Q70" s="148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -4577,285 +4709,272 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
     </row>
-    <row r="71" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="90" t="s">
-        <v>79</v>
+    <row r="71" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="150" t="s">
+        <v>1</v>
       </c>
-      <c r="D71" s="127"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="165"/>
-      <c r="N71" s="165"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="165"/>
-      <c r="Q71" s="165">
+      <c r="B71" s="150"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="151"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="153">
+        <f>SUM(F5:F70)</f>
+        <v>141</v>
+      </c>
+      <c r="G71" s="154">
+        <f>SUM(G5:G70)</f>
+        <v>162</v>
+      </c>
+      <c r="H71" s="155">
+        <f>SUM(M71:P71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="154">
+        <f>SUM(I5:I70)</f>
+        <v>159</v>
+      </c>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="155">
+        <f t="shared" ref="M71:P71" si="9">SUM(M5:M70)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="155">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
-    <row r="72" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="127"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
-      <c r="Q72" s="155">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-    </row>
-    <row r="73" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="164"/>
-      <c r="N73" s="164"/>
-      <c r="O73" s="164"/>
-      <c r="P73" s="164"/>
-      <c r="Q73" s="164">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="R71" s="156"/>
+      <c r="S71" s="156"/>
+      <c r="T71" s="156"/>
+      <c r="U71" s="156"/>
+      <c r="V71" s="156"/>
+      <c r="W71" s="156"/>
+      <c r="X71" s="156"/>
+      <c r="Y71" s="156"/>
+      <c r="Z71" s="156"/>
+      <c r="AA71" s="156"/>
+      <c r="AB71" s="156"/>
+      <c r="AC71" s="156"/>
+      <c r="AD71" s="156"/>
+      <c r="AE71" s="156"/>
+      <c r="AF71" s="156"/>
+    </row>
+    <row r="72" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="157"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+    </row>
+    <row r="73" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
     </row>
     <row r="74" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="166"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="168"/>
-      <c r="F74" s="169">
-        <f t="shared" ref="F74:G74" si="9">SUM(F5:F73)</f>
-        <v>105</v>
-      </c>
-      <c r="G74" s="170">
-        <f t="shared" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="H74" s="171">
-        <f>SUM(M74:P74)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="170">
-        <f>SUM(I5:I73)</f>
-        <v>74</v>
-      </c>
-      <c r="J74" s="172"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="171">
-        <f t="shared" ref="M74:P74" si="10">SUM(M5:M73)</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="171">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="172"/>
-      <c r="S74" s="172"/>
-      <c r="T74" s="172"/>
-      <c r="U74" s="172"/>
-      <c r="V74" s="172"/>
-      <c r="W74" s="172"/>
-      <c r="X74" s="172"/>
-      <c r="Y74" s="172"/>
-      <c r="Z74" s="172"/>
-      <c r="AA74" s="172"/>
-      <c r="AB74" s="172"/>
-      <c r="AC74" s="172"/>
-      <c r="AD74" s="172"/>
-      <c r="AE74" s="172"/>
-      <c r="AF74" s="172"/>
-    </row>
-    <row r="75" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8"/>
-    </row>
-    <row r="76" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="8"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="8"/>
-    </row>
-    <row r="77" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="8"/>
-      <c r="AF77" s="8"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+    </row>
+    <row r="75" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+    </row>
+    <row r="76" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+    </row>
+    <row r="77" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
     </row>
     <row r="78" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -36443,128 +36562,26 @@
       <c r="AE1006" s="4"/>
       <c r="AF1006" s="4"/>
     </row>
-    <row r="1007" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="3"/>
-      <c r="E1007" s="4"/>
-      <c r="F1007" s="4"/>
-      <c r="G1007" s="5"/>
-      <c r="H1007" s="4"/>
-      <c r="I1007" s="4"/>
-      <c r="J1007" s="4"/>
-      <c r="K1007" s="4"/>
-      <c r="L1007" s="4"/>
-      <c r="M1007" s="6"/>
-      <c r="N1007" s="6"/>
-      <c r="O1007" s="6"/>
-      <c r="P1007" s="6"/>
-      <c r="Q1007" s="4"/>
-      <c r="R1007" s="4"/>
-      <c r="S1007" s="4"/>
-      <c r="T1007" s="4"/>
-      <c r="U1007" s="4"/>
-      <c r="V1007" s="4"/>
-      <c r="W1007" s="4"/>
-      <c r="X1007" s="4"/>
-      <c r="Y1007" s="4"/>
-      <c r="Z1007" s="4"/>
-      <c r="AA1007" s="4"/>
-      <c r="AB1007" s="4"/>
-      <c r="AC1007" s="4"/>
-      <c r="AD1007" s="4"/>
-      <c r="AE1007" s="4"/>
-      <c r="AF1007" s="4"/>
-    </row>
-    <row r="1008" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="3"/>
-      <c r="E1008" s="4"/>
-      <c r="F1008" s="4"/>
-      <c r="G1008" s="5"/>
-      <c r="H1008" s="4"/>
-      <c r="I1008" s="4"/>
-      <c r="J1008" s="4"/>
-      <c r="K1008" s="4"/>
-      <c r="L1008" s="4"/>
-      <c r="M1008" s="6"/>
-      <c r="N1008" s="6"/>
-      <c r="O1008" s="6"/>
-      <c r="P1008" s="6"/>
-      <c r="Q1008" s="4"/>
-      <c r="R1008" s="4"/>
-      <c r="S1008" s="4"/>
-      <c r="T1008" s="4"/>
-      <c r="U1008" s="4"/>
-      <c r="V1008" s="4"/>
-      <c r="W1008" s="4"/>
-      <c r="X1008" s="4"/>
-      <c r="Y1008" s="4"/>
-      <c r="Z1008" s="4"/>
-      <c r="AA1008" s="4"/>
-      <c r="AB1008" s="4"/>
-      <c r="AC1008" s="4"/>
-      <c r="AD1008" s="4"/>
-      <c r="AE1008" s="4"/>
-      <c r="AF1008" s="4"/>
-    </row>
-    <row r="1009" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="3"/>
-      <c r="E1009" s="4"/>
-      <c r="F1009" s="4"/>
-      <c r="G1009" s="5"/>
-      <c r="H1009" s="4"/>
-      <c r="I1009" s="4"/>
-      <c r="J1009" s="4"/>
-      <c r="K1009" s="4"/>
-      <c r="L1009" s="4"/>
-      <c r="M1009" s="6"/>
-      <c r="N1009" s="6"/>
-      <c r="O1009" s="6"/>
-      <c r="P1009" s="6"/>
-      <c r="Q1009" s="4"/>
-      <c r="R1009" s="4"/>
-      <c r="S1009" s="4"/>
-      <c r="T1009" s="4"/>
-      <c r="U1009" s="4"/>
-      <c r="V1009" s="4"/>
-      <c r="W1009" s="4"/>
-      <c r="X1009" s="4"/>
-      <c r="Y1009" s="4"/>
-      <c r="Z1009" s="4"/>
-      <c r="AA1009" s="4"/>
-      <c r="AB1009" s="4"/>
-      <c r="AC1009" s="4"/>
-      <c r="AD1009" s="4"/>
-      <c r="AE1009" s="4"/>
-      <c r="AF1009" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5 M5:Q74 I7:I15 I21:I68 I74">
+  <conditionalFormatting sqref="I5 I8 I71 I25 I29 I34 I12 I36 I42 I44 I49 I52 M5:Q71">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I66">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I73">
+  <conditionalFormatting sqref="I68:I70">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I67">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
